--- a/measurement/Variazione Throughput (heavy kernel).xlsx
+++ b/measurement/Variazione Throughput (heavy kernel).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidedeleonardis/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidedeleonardis/Desktop/Developer/Progettazione di un nodo FastFlow per integrazione di acceleratori - TESI Unipi/measurement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDDC836F-B411-C241-BDCA-095FAD262ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6652A695-03EF-D643-B9BB-45C3C108CD79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26020" yWindow="500" windowWidth="35860" windowHeight="28300" xr2:uid="{9E41E198-479B-D244-8D95-CF9930E7C8CA}"/>
+    <workbookView xWindow="32380" yWindow="500" windowWidth="35860" windowHeight="28300" xr2:uid="{9E41E198-479B-D244-8D95-CF9930E7C8CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -100,10 +100,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -740,6 +740,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1950"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1496,10 +1497,10 @@
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1600200</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1847,7 +1848,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
